--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,14 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Postconditions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Test Data</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Expected Result</t>
@@ -482,6 +482,16 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Priority</t>
         </is>
       </c>
     </row>
@@ -491,40 +501,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valid Email and Password</t>
+          <t>Verify Tabular View Display</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test login with valid email and password</t>
+          <t>Ensure that the tabular view displays all required fields correctly.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Enter valid email and password, click login button</t>
+          <t>All fields are displayed as expected.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>valid_email, valid_password</t>
+          <t>1. Navigate to the Professional Accounts List page.
+2. Verify that the table contains columns for Name, Email, Phone Number, Position, Verification Status, Company Account, Connections, and Created On.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Redirect to dashboard</t>
+          <t>The table should display all the required fields with correct labels.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>This test case covers the successful login scenario</t>
-        </is>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -533,40 +546,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invalid Email Format</t>
+          <t>Search Functionality - Name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Test login with invalid email format</t>
+          <t>Test the search functionality for the Name field.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enter invalid email format, click login button</t>
+          <t>Search results are displayed correctly.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>invalid_email, valid_password</t>
+          <t>1. Enter a valid name in the search field.
+2. Press the search button or hit enter.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Display error message for incorrect email format</t>
+          <t>The table should display only the rows that match the entered name.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>This test case covers the email validation scenario</t>
-        </is>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -575,40 +591,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Empty Password</t>
+          <t>Search Functionality - Email</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Test login with empty password</t>
+          <t>Test the search functionality for the Email field.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enter valid email and empty password, click login button</t>
+          <t>Search results are displayed correctly.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>valid_email, empty_password</t>
+          <t>1. Enter a valid email in the search field.
+2. Press the search button or hit enter.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Display error message for empty password</t>
+          <t>The table should display only the rows that match the entered email.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>This test case covers the password validation scenario</t>
-        </is>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -617,40 +636,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Incorrect Credentials</t>
+          <t>Search Functionality - Phone Number</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Test login with incorrect email and password</t>
+          <t>Test the search functionality for the Phone Number field.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enter incorrect email and password, click login button</t>
+          <t>Search results are displayed correctly.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>incorrect_email, incorrect_password</t>
+          <t>1. Enter a valid phone number in the search field.
+2. Press the search button or hit enter.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Display error message for incorrect credentials</t>
+          <t>The table should display only the rows that match the entered phone number.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>This test case covers the authentication failure scenario</t>
-        </is>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -659,40 +681,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Forgot Password Link</t>
+          <t>Pagination - Display 10 Records</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Test forgot password link functionality</t>
+          <t>Test the pagination functionality with 10 records per page.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Click forgot password link</t>
+          <t>Pagination works as expected.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>valid_email</t>
+          <t>1. Select '10' from the dropdown to display 10 records per page.
+2. Verify the number of records displayed on the page.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Redirect to forgot password page</t>
+          <t>The page should display 10 records and the pagination controls should allow navigation through the pages.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>This test case covers the forgot password link scenario</t>
-        </is>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -701,40 +726,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Remember Me Option</t>
+          <t>Pagination - Display 20 Records</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Test remember me option functionality</t>
+          <t>Test the pagination functionality with 20 records per page.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>User is on the login page</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Check remember me option, click login button</t>
+          <t>Pagination works as expected.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>valid_email, valid_password, remember_me_checked</t>
+          <t>1. Select '20' from the dropdown to display 20 records per page.
+2. Verify the number of records displayed on the page.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>User stays logged in</t>
+          <t>The page should display 20 records and the pagination controls should allow navigation through the pages.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>This test case covers the remember me option scenario</t>
-        </is>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -743,40 +771,403 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Responsive Design</t>
+          <t>Pagination - Display 50 Records</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Test login page responsiveness on mobile devices</t>
+          <t>Test the pagination functionality with 50 records per page.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>User is on the login page on a mobile device</t>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Resize the browser window to simulate mobile device</t>
+          <t>Pagination works as expected.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>valid_email, valid_password</t>
+          <t>1. Select '50' from the dropdown to display 50 records per page.
+2. Verify the number of records displayed on the page.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Login page is mobile-friendly</t>
+          <t>The page should display 50 records and the pagination controls should allow navigation through the pages.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>This test case covers the responsive design scenario</t>
-        </is>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Edge Case - Empty Search</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Test the search functionality with an empty search query.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>All records are displayed.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1. Leave the search field empty.
+2. Press the search button or hit enter.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The table should display all records without any filtering.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Edge Case - Invalid Search</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Test the search functionality with an invalid search query.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No records are displayed.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1. Enter an invalid search term that does not match any records.
+2. Press the search button or hit enter.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The table should display a message indicating no results were found.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Edge Case - Large Search Query</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Test the search functionality with a large search query.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>System handles the large query without crashing.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1. Enter a very long string in the search field.
+2. Press the search button or hit enter.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>The system should handle the large query gracefully, either by displaying a message or filtering results appropriately.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Edge Case - Special Characters in Search</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Test the search functionality with special characters in the search query.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>System handles special characters without crashing.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1. Enter a search term with special characters.
+2. Press the search button or hit enter.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>The system should handle special characters gracefully, either by displaying a message or filtering results appropriately.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Edge Case - Pagination with No Records</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Test the pagination functionality when there are no records to display.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page with no records.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pagination controls are disabled or hidden.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1. Ensure there are no records in the system.
+2. Navigate to the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>The pagination controls should be disabled or hidden, and a message should be displayed indicating no records are available.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Edge Case - Pagination with Fewer Records than Selected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Test the pagination functionality when the number of records is fewer than the selected number per page.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page with fewer records than the selected number per page.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pagination controls are disabled or hidden.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1. Select a number of records per page greater than the total number of records.
+2. Verify the pagination controls.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The pagination controls should be disabled or hidden, and all records should be displayed on a single page.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Edge Case - Pagination with Large Number of Records</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Test the pagination functionality with a large number of records.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page with a large number of records.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pagination works as expected.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1. Ensure there are a large number of records in the system.
+2. Select a number of records per page and navigate through the pages.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>The pagination should work correctly, allowing the user to navigate through the pages without performance issues.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Edge Case - Company Account Field</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Test the display of the Company Account field.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Admin user is logged in and on the Professional Accounts List page.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Company Account field displays 'N/A' when no company is created.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1. Navigate to the Professional Accounts List page.
+2. Verify the Company Account field for accounts with and without a company.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>The Company Account field should display 'N/A' for accounts without a company and the company name for accounts with a company.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
